--- a/techniqo/data_new_ticker/IIFLWAM.xlsx
+++ b/techniqo/data_new_ticker/IIFLWAM.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G246"/>
+  <dimension ref="A1:G248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8996,6 +8996,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>985.05</v>
+      </c>
+      <c r="C247" t="n">
+        <v>999.5</v>
+      </c>
+      <c r="D247" t="n">
+        <v>985</v>
+      </c>
+      <c r="E247" t="n">
+        <v>987.15</v>
+      </c>
+      <c r="F247" t="n">
+        <v>18492</v>
+      </c>
+      <c r="G247" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>989.8</v>
+      </c>
+      <c r="C248" t="n">
+        <v>995</v>
+      </c>
+      <c r="D248" t="n">
+        <v>972.1</v>
+      </c>
+      <c r="E248" t="n">
+        <v>975.8</v>
+      </c>
+      <c r="F248" t="n">
+        <v>39090</v>
+      </c>
+      <c r="G248" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/IIFLWAM.xlsx
+++ b/techniqo/data_new_ticker/IIFLWAM.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G248"/>
+  <dimension ref="A1:G250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9046,6 +9046,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>980.45</v>
+      </c>
+      <c r="C249" t="n">
+        <v>983.35</v>
+      </c>
+      <c r="D249" t="n">
+        <v>975</v>
+      </c>
+      <c r="E249" t="n">
+        <v>978.5</v>
+      </c>
+      <c r="F249" t="n">
+        <v>4503</v>
+      </c>
+      <c r="G249" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>980</v>
+      </c>
+      <c r="C250" t="n">
+        <v>994.9</v>
+      </c>
+      <c r="D250" t="n">
+        <v>975</v>
+      </c>
+      <c r="E250" t="n">
+        <v>982.4</v>
+      </c>
+      <c r="F250" t="n">
+        <v>25728</v>
+      </c>
+      <c r="G250" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
